--- a/biology/Botanique/Barclaya/Barclaya.xlsx
+++ b/biology/Botanique/Barclaya/Barclaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barclaya est un genre de plantes de la famille des Nymphaeaceae. Barclaya est un nomen conservandum[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barclaya est un genre de plantes de la famille des Nymphaeaceae. Barclaya est un nomen conservandum.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Barclaya compte 6 à 8 espèces:
-Barclaya hirta (Kurz ex Teijsm. &amp; Binn.) Miq.[2]
-Barclaya kunstleri (King) Ridl.[2]
-Barclaya longifolia Wall.[3],[2]
-Barclaya motleyi Hook.f.[3],[2]
-Barclaya panchorensis Komala[3],[2]
-Barclaya rotundifolia M.Hotta[3],[2]
-Barclaya rugosa Sofiman Othman &amp; N.Jacobsen[3],[2]
-Barclaya wellyi Wongso, Ipor &amp; N.Jacobsen[3],[2]</t>
+Barclaya hirta (Kurz ex Teijsm. &amp; Binn.) Miq.
+Barclaya kunstleri (King) Ridl.
+Barclaya longifolia Wall.,
+Barclaya motleyi Hook.f.,
+Barclaya panchorensis Komala,
+Barclaya rotundifolia M.Hotta,
+Barclaya rugosa Sofiman Othman &amp; N.Jacobsen,
+Barclaya wellyi Wongso, Ipor &amp; N.Jacobsen,</t>
         </is>
       </c>
     </row>
